--- a/data/trans_orig/P36BPD10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>58028</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45893</v>
+        <v>43951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76346</v>
+        <v>72587</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1005633146870185</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07953236038351143</v>
+        <v>0.07616708805508175</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1323086538130206</v>
+        <v>0.1257930377000815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -762,19 +762,19 @@
         <v>75911</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62776</v>
+        <v>62683</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90909</v>
+        <v>89706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0925547889145717</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07653998127903162</v>
+        <v>0.07642676804787953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1108411636942938</v>
+        <v>0.1093741285196322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -783,19 +783,19 @@
         <v>133939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114310</v>
+        <v>116556</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154194</v>
+        <v>156369</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09586222939140268</v>
+        <v>0.09586222939140271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08181305554271474</v>
+        <v>0.08342047600067415</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.110358816282131</v>
+        <v>0.1119158650024097</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>300610</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278131</v>
+        <v>275869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325772</v>
+        <v>322346</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5209593600861124</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4820022018389469</v>
+        <v>0.4780830941889144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5645649163126115</v>
+        <v>0.558626779276854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>745</v>
@@ -833,19 +833,19 @@
         <v>438424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417567</v>
+        <v>416501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>458607</v>
+        <v>460312</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5345505049523867</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.509119428566766</v>
+        <v>0.5078201564901011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5591580211369027</v>
+        <v>0.5612371614984164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1105</v>
@@ -854,19 +854,19 @@
         <v>739034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>706457</v>
+        <v>703380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>770283</v>
+        <v>769781</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5289374990216514</v>
+        <v>0.5289374990216515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5056218028108727</v>
+        <v>0.503419568035798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5513026162548804</v>
+        <v>0.5509436234726521</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>218394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>196205</v>
+        <v>195353</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>240448</v>
+        <v>242728</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.378477325226869</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3400253084490367</v>
+        <v>0.3385475025886505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4166976760150061</v>
+        <v>0.4206489626920195</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>561</v>
@@ -904,19 +904,19 @@
         <v>305839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>285240</v>
+        <v>286563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>325479</v>
+        <v>327072</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3728947061330417</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3477798479086057</v>
+        <v>0.3493934054069193</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3968412551185796</v>
+        <v>0.3987839337605747</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>824</v>
@@ -925,19 +925,19 @@
         <v>524232</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>493535</v>
+        <v>492571</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>555433</v>
+        <v>555156</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3752002715869458</v>
+        <v>0.3752002715869457</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3532303611814686</v>
+        <v>0.352540249858633</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3975315714436141</v>
+        <v>0.3973331347472914</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>238186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>206048</v>
+        <v>203478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>280403</v>
+        <v>275912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1069854340958596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09255007526233491</v>
+        <v>0.09139560308591556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1259477694636464</v>
+        <v>0.1239304057539176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>234</v>
@@ -1050,19 +1050,19 @@
         <v>196133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>172927</v>
+        <v>171522</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>223130</v>
+        <v>222824</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09032595057702539</v>
+        <v>0.09032595057702537</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0796386753878727</v>
+        <v>0.0789916394112456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1027590409767937</v>
+        <v>0.1026179151015759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>419</v>
@@ -1071,19 +1071,19 @@
         <v>434319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>384692</v>
+        <v>391463</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>477399</v>
+        <v>480201</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09875977631214251</v>
+        <v>0.09875977631214253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08747494763341356</v>
+        <v>0.08901468489296982</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1085556634795939</v>
+        <v>0.1091928762541339</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>1059624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1003845</v>
+        <v>1006412</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1113249</v>
+        <v>1110879</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4759479078496958</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4508941190726869</v>
+        <v>0.4520468087811175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.500034621775716</v>
+        <v>0.4989701708553855</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1282</v>
@@ -1121,19 +1121,19 @@
         <v>997017</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>954179</v>
+        <v>953684</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1040354</v>
+        <v>1038097</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4591602695830848</v>
+        <v>0.4591602695830846</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4394319328653532</v>
+        <v>0.4392039613260774</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4791185517942486</v>
+        <v>0.4780789930929839</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2211</v>
@@ -1142,19 +1142,19 @@
         <v>2056641</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1991492</v>
+        <v>1977134</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2124554</v>
+        <v>2120211</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4676589733685122</v>
+        <v>0.4676589733685123</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4528447586743584</v>
+        <v>0.4495798782558756</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4831018174883733</v>
+        <v>0.4821142965926425</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>928534</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>872743</v>
+        <v>875704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>981169</v>
+        <v>978922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4170666580544445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3920070625611833</v>
+        <v>0.3933374504614571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4407086697446375</v>
+        <v>0.4396995152533334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1405</v>
@@ -1192,19 +1192,19 @@
         <v>978242</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>933528</v>
+        <v>940180</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1021303</v>
+        <v>1023936</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4505137798398899</v>
+        <v>0.4505137798398898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4299216569249998</v>
+        <v>0.4329850324250759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4703446172457196</v>
+        <v>0.4715575210113733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2279</v>
@@ -1213,19 +1213,19 @@
         <v>1906776</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1840427</v>
+        <v>1844092</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1972986</v>
+        <v>1979912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4335812503193454</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4184941367564579</v>
+        <v>0.4193275894290747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4486366903997409</v>
+        <v>0.4502115692337003</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>55362</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39491</v>
+        <v>41050</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73348</v>
+        <v>73145</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07780008533143135</v>
+        <v>0.07780008533143133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05549677822204752</v>
+        <v>0.05768796940493476</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1030762662617023</v>
+        <v>0.1027907455975159</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -1338,19 +1338,19 @@
         <v>66074</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52924</v>
+        <v>52929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84591</v>
+        <v>82920</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08991221914560271</v>
+        <v>0.08991221914560274</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07201813310176854</v>
+        <v>0.07202378902211631</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1151095413011053</v>
+        <v>0.1128346588138084</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>128</v>
@@ -1359,19 +1359,19 @@
         <v>121436</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>101405</v>
+        <v>101457</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145218</v>
+        <v>144837</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08395366401942342</v>
+        <v>0.0839536640194234</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07010552503472131</v>
+        <v>0.07014126851379761</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1003948410653735</v>
+        <v>0.1001317567842644</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>300773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>270241</v>
+        <v>271837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>329354</v>
+        <v>328974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4226794328936819</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3797717486553623</v>
+        <v>0.3820152467036985</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4628438236274943</v>
+        <v>0.4623098396277599</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>340</v>
@@ -1409,19 +1409,19 @@
         <v>261320</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238170</v>
+        <v>238925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285071</v>
+        <v>284294</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3555975882117013</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.324095202899273</v>
+        <v>0.325121897863081</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3879160524398434</v>
+        <v>0.3868596303455373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>617</v>
@@ -1430,19 +1430,19 @@
         <v>562094</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>525298</v>
+        <v>523762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>601334</v>
+        <v>600729</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3885984512830549</v>
+        <v>0.3885984512830548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3631598456517406</v>
+        <v>0.3620984764237982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4157269930316619</v>
+        <v>0.4153088641499723</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>355452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>327287</v>
+        <v>328754</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>386940</v>
+        <v>384077</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4995204817748867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4599401493361398</v>
+        <v>0.462000855067666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5437709670884417</v>
+        <v>0.5397473039751745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>581</v>
@@ -1480,19 +1480,19 @@
         <v>407482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>384326</v>
+        <v>383169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433887</v>
+        <v>430794</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5544901926426958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5229794205863125</v>
+        <v>0.5214050971572234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5904208173501538</v>
+        <v>0.5862122456879068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>940</v>
@@ -1501,19 +1501,19 @@
         <v>762934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>724539</v>
+        <v>725589</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>800742</v>
+        <v>800578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5274478846975218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5009037164534903</v>
+        <v>0.5016295840212492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5535856168277405</v>
+        <v>0.5534727776488797</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>351576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>310147</v>
+        <v>314292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>393909</v>
+        <v>394155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.100022719200585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08823611969600884</v>
+        <v>0.08941545477118716</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1120662522194541</v>
+        <v>0.1121364072221225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>435</v>
@@ -1626,19 +1626,19 @@
         <v>338118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>305088</v>
+        <v>304664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>371125</v>
+        <v>373748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09073491764246867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0818710692603607</v>
+        <v>0.08175728714138514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09959224850883334</v>
+        <v>0.100296119504419</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>731</v>
@@ -1647,19 +1647,19 @@
         <v>689695</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>640654</v>
+        <v>639162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>747268</v>
+        <v>744718</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09524319642989261</v>
+        <v>0.0952431964298926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08847097269521646</v>
+        <v>0.08826487379916366</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1031937259003357</v>
+        <v>0.1028416165219825</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>1661007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1592962</v>
+        <v>1599757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1731234</v>
+        <v>1732427</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4725532425111281</v>
+        <v>0.4725532425111282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4531945082577813</v>
+        <v>0.4551277391063137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4925327569011932</v>
+        <v>0.4928720703377009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2367</v>
@@ -1697,19 +1697,19 @@
         <v>1696762</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1641445</v>
+        <v>1634443</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1750876</v>
+        <v>1745704</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4553301331769476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4404858167378605</v>
+        <v>0.4386067861323935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4698518109841781</v>
+        <v>0.4684637984292368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3933</v>
@@ -1718,19 +1718,19 @@
         <v>3357769</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3259477</v>
+        <v>3265901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3436226</v>
+        <v>3436410</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4636901931953398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.450116525679117</v>
+        <v>0.4510037589592477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4745246921275247</v>
+        <v>0.4745501745075165</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>1502380</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1432085</v>
+        <v>1445796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1565775</v>
+        <v>1572275</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4274240382882868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4074253876772361</v>
+        <v>0.4113260236069046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4454599965509182</v>
+        <v>0.4473090948273885</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2547</v>
@@ -1768,19 +1768,19 @@
         <v>1691563</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1634160</v>
+        <v>1644486</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1743351</v>
+        <v>1750940</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4539349491805838</v>
+        <v>0.4539349491805837</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4385308525869526</v>
+        <v>0.4413018320521297</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4678325800306221</v>
+        <v>0.4698689555513007</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4043</v>
@@ -1789,19 +1789,19 @@
         <v>3193942</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3115051</v>
+        <v>3111067</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3288681</v>
+        <v>3288854</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4410666103747676</v>
+        <v>0.4410666103747675</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4301720725104624</v>
+        <v>0.4296219135390916</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4541494653748896</v>
+        <v>0.4541733892177373</v>
       </c>
     </row>
     <row r="19">
